--- a/document/9. กลุ่มบริหารหนี้และกฎหมาย.xlsx
+++ b/document/9. กลุ่มบริหารหนี้และกฎหมาย.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79C0B1-77E1-422D-9BF0-7294441F6A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1A7AF1-3E05-4DA8-9D48-F757B82C0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="11" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="7" activeTab="11" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="ส่วนขึ้นตรงกลุ่ม 1" sheetId="2" r:id="rId1"/>
@@ -2341,12 +2341,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5003,13 +5003,13 @@
   <dimension ref="A1:T680"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A640" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E674" sqref="E674"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -11016,12 +11016,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -14812,12 +14812,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -15969,13 +15969,13 @@
   <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -16973,12 +16973,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -24575,9 +24575,9 @@
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -35699,13 +35699,13 @@
   <dimension ref="A1:V194"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D162" sqref="D162"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -38184,12 +38184,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -41690,12 +41690,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -44334,12 +44334,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -48470,12 +48470,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
